--- a/zhe800.xlsx
+++ b/zhe800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>表名</t>
   </si>
@@ -94,6 +94,36 @@
     <t>用户积分</t>
   </si>
   <si>
+    <t>user_level</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>用户级别</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>用户邮箱</t>
+  </si>
+  <si>
+    <t>user_tel</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>用户手机号</t>
+  </si>
+  <si>
+    <t>user_address</t>
+  </si>
+  <si>
+    <t>用户收货地址</t>
+  </si>
+  <si>
     <t>goods</t>
   </si>
   <si>
@@ -115,6 +145,9 @@
     <t>goods_price</t>
   </si>
   <si>
+    <t>dicimal</t>
+  </si>
+  <si>
     <t>商品价格</t>
   </si>
   <si>
@@ -127,7 +160,7 @@
     <t>goods_numb</t>
   </si>
   <si>
-    <t>商品数量</t>
+    <t>商品库存</t>
   </si>
   <si>
     <t xml:space="preserve">goods_introduce </t>
@@ -152,6 +185,15 @@
   </si>
   <si>
     <t>商品图片</t>
+  </si>
+  <si>
+    <t>goods_status</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>商品状态是否上线</t>
   </si>
 </sst>
 </file>
@@ -159,9 +201,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -182,6 +224,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -189,7 +275,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,109 +304,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,8 +344,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,11 +592,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,41 +646,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,11 +674,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,156 +684,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
@@ -1248,178 +1290,220 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="1" t="s">
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="I10" t="s">
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="I11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="1" t="s">
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>200</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>200</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1428,13 +1512,41 @@
         <v>255</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>255</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/zhe800.xlsx
+++ b/zhe800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>表名</t>
   </si>
@@ -124,6 +124,54 @@
     <t>用户收货地址</t>
   </si>
   <si>
+    <t>user_sex</t>
+  </si>
+  <si>
+    <t>用户性别</t>
+  </si>
+  <si>
+    <t>user_img</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>user_is_freeze</t>
+  </si>
+  <si>
+    <t>用户状态是否冻结</t>
+  </si>
+  <si>
+    <t>user_add_time</t>
+  </si>
+  <si>
+    <t>datatime</t>
+  </si>
+  <si>
+    <t>用户注册时间</t>
+  </si>
+  <si>
+    <t>user_last_login_time</t>
+  </si>
+  <si>
+    <t>用户最后登陆时间</t>
+  </si>
+  <si>
+    <t>user_birthday</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>用户生日</t>
+  </si>
+  <si>
+    <t>user_pay_password</t>
+  </si>
+  <si>
+    <t>用户支付密码</t>
+  </si>
+  <si>
     <t>goods</t>
   </si>
   <si>
@@ -175,10 +223,10 @@
     <t>商品物流</t>
   </si>
   <si>
-    <t>goods_assess</t>
-  </si>
-  <si>
-    <t>商品评价</t>
+    <t>goods_assess_number</t>
+  </si>
+  <si>
+    <t>商品评价数量</t>
   </si>
   <si>
     <t>goods_picture</t>
@@ -230,6 +278,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="DengXian"/>
@@ -244,135 +421,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,187 +431,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +640,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -607,25 +664,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -648,26 +696,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,157 +714,174 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
@@ -1346,207 +1394,309 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:7">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2">
-        <v>200</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>41</v>
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14"/>
+      <c r="G14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
+      <c r="C15"/>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>200</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
         <v>255</v>
       </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C28">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C30">
         <v>255</v>
       </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>255</v>
-      </c>
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22">
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="G22" t="s">
-        <v>59</v>
+      <c r="G31" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/zhe800.xlsx
+++ b/zhe800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>表名</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>dicimal</t>
+  </si>
+  <si>
+    <t>11，2</t>
   </si>
   <si>
     <t>商品价格</t>
@@ -249,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -278,6 +281,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -308,13 +318,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -323,6 +326,76 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,63 +410,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,21 +424,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -431,25 +434,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,157 +602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +646,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -660,21 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,17 +694,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,52 +743,52 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,94 +797,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
@@ -1443,7 +1446,6 @@
       <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14"/>
       <c r="G14" t="s">
         <v>44</v>
       </c>
@@ -1455,7 +1457,6 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15"/>
       <c r="G15" t="s">
         <v>46</v>
       </c>
@@ -1588,16 +1589,16 @@
       <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="C24">
-        <v>11</v>
+      <c r="C24" t="s">
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1606,12 +1607,12 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1620,12 +1621,12 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -1634,12 +1635,12 @@
         <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -1648,12 +1649,12 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -1662,12 +1663,12 @@
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -1676,21 +1677,21 @@
         <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:7">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/zhe800.xlsx
+++ b/zhe800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>表名</t>
   </si>
@@ -245,6 +245,87 @@
   </si>
   <si>
     <t>商品状态是否上线</t>
+  </si>
+  <si>
+    <t>goods_create_time</t>
+  </si>
+  <si>
+    <t>商品上架时间</t>
+  </si>
+  <si>
+    <t>goods_down_time</t>
+  </si>
+  <si>
+    <t>商品下架时间</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>innodb</t>
+  </si>
+  <si>
+    <t>商品库存表</t>
+  </si>
+  <si>
+    <t>sku_id</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>sku_code</t>
+  </si>
+  <si>
+    <t>sku编码</t>
+  </si>
+  <si>
+    <t>bar_code</t>
+  </si>
+  <si>
+    <t>产品条码</t>
+  </si>
+  <si>
+    <t>产品id</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>订单表</t>
+  </si>
+  <si>
+    <t>因为要涉及两表联查</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>主键索引</t>
+  </si>
+  <si>
+    <t>订单id</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>当前订单商品数量</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>order_price</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>订单总价</t>
   </si>
 </sst>
 </file>
@@ -252,10 +333,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -274,6 +355,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -282,7 +364,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,8 +416,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,26 +434,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,84 +499,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -434,37 +515,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,25 +671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,115 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,18 +726,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,7 +784,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,177 +821,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,10 +1299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
@@ -1692,6 +1773,252 @@
       </c>
       <c r="G31" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>255</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>255</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>111</v>
+      </c>
+      <c r="G40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:8">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
